--- a/src/application/reportLists/reportListImportTestFiles/reportlist.xlsx
+++ b/src/application/reportLists/reportListImportTestFiles/reportlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Documents\AIIT\PBL\repos\manakan\src\application\reportLists\reportListImportTestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DEEB0-31BD-43D7-9A47-4AF150008976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1851A90-1C7F-45DB-AE6A-A0B5E7AFB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="133">
   <si>
     <t>#name</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>開く</t>
   </si>
   <si>
     <t>a2350mh</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +501,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -603,8 +608,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -636,9 +642,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -651,8 +654,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -869,7 +876,7 @@
   <dimension ref="A1:M998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1031,13 +1038,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1061,8 +1068,9 @@
       <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>40</v>
+      <c r="M8" s="15" t="str">
+        <f>HYPERLINK(C8 &amp; "@" &amp; B8, "開く")</f>
+        <v>開く</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,16 +1078,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -1095,13 +1103,14 @@
         <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>40</v>
+      <c r="M9" s="15" t="str">
+        <f>HYPERLINK(C9 &amp; "@" &amp; B9, "開く")</f>
+        <v>開く</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,16 +1118,16 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
@@ -1134,13 +1143,14 @@
         <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>40</v>
+      <c r="M10" s="15" t="str">
+        <f t="shared" ref="M10:M27" si="0">HYPERLINK(C10 &amp; "@" &amp; B10, "開く")</f>
+        <v>開く</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,16 +1158,16 @@
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
@@ -1173,13 +1183,14 @@
         <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>40</v>
+      <c r="M11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,16 +1198,16 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
@@ -1212,13 +1223,14 @@
         <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>40</v>
+      <c r="M12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,16 +1238,16 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
@@ -1251,13 +1263,14 @@
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="M13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,16 +1278,16 @@
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
@@ -1290,13 +1303,14 @@
         <v>37</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>40</v>
+      <c r="M14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,16 +1318,16 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
@@ -1329,13 +1343,14 @@
         <v>37</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>40</v>
+      <c r="M15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,16 +1358,16 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
@@ -1368,13 +1383,14 @@
         <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="M16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,16 +1398,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1407,13 +1423,14 @@
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>40</v>
+      <c r="M17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,16 +1438,16 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
@@ -1446,13 +1463,14 @@
         <v>37</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>40</v>
+      <c r="M18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,16 +1478,16 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
@@ -1485,30 +1503,31 @@
         <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>40</v>
+      <c r="M19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
@@ -1524,13 +1543,14 @@
         <v>37</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>40</v>
+      <c r="M20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1538,16 +1558,16 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
@@ -1563,13 +1583,14 @@
         <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>40</v>
+      <c r="M21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,16 +1598,16 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -1602,13 +1623,14 @@
         <v>37</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>40</v>
+      <c r="M22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,16 +1638,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
@@ -1641,13 +1663,14 @@
         <v>37</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>40</v>
+      <c r="M23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,16 +1678,16 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
@@ -1680,13 +1703,14 @@
         <v>37</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>40</v>
+      <c r="M24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1694,16 +1718,16 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
@@ -1719,13 +1743,14 @@
         <v>37</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>40</v>
+      <c r="M25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,16 +1758,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
@@ -1758,13 +1783,14 @@
         <v>37</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>40</v>
+      <c r="M26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,16 +1798,16 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
@@ -1797,39 +1823,40 @@
         <v>37</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>40</v>
+      <c r="M27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>開く</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="E28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -1846,69 +1873,69 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="15" t="s">
+      <c r="A29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
